--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,10 +512,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>9.765909728062798</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>19.7659097280628</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>9.547511205076907</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>19.54751120507691</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>9.266666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7.266666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>9.266666666666667</v>
+        <v>16.53333333333333</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.144781144781145</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>9.547511205076907</v>
+        <v>8.805830041014605</v>
       </c>
       <c r="E11" t="n">
-        <v>15.69229234985805</v>
+        <v>18.80583004101461</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>9.433333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>9.433333333333334</v>
+        <v>18.43333333333333</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -791,6 +791,330 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.845583252581399</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.8455832525814</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6.178451178451178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.203044474608784</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.38149565305996</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9.466666666666667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9.566666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.56666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.41939465758159</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.41939465758159</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.710634228772049</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.71063422877205</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9.073766849355653</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.07376684935565</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -1025,10 +1025,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>6.710634228772049</v>
+        <v>7.527008468319953</v>
       </c>
       <c r="E22" t="n">
-        <v>16.71063422877205</v>
+        <v>17.52700846831995</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,10 +1025,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>7.527008468319953</v>
+        <v>8.090546375446651</v>
       </c>
       <c r="E22" t="n">
-        <v>17.52700846831995</v>
+        <v>18.09054637544665</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1115,6 +1115,114 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.881871302733602</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.881871302733602</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>8.562525431729032</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>18.56252543172903</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>7.881871302733602</v>
+        <v>8.52298552929593</v>
       </c>
       <c r="E27" t="n">
-        <v>7.881871302733602</v>
+        <v>8.52298552929593</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1223,6 +1223,330 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5.606060606060606</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15.60606060606061</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9.636761666042741</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.826889843479979</v>
+      </c>
+      <c r="E33" t="n">
+        <v>18.46365150952272</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9.812092967087457</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.777851728743782</v>
+      </c>
+      <c r="E34" t="n">
+        <v>19.58994469583124</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.027052333983831</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.027052333983831</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.580012837604304</v>
+      </c>
+      <c r="E37" t="n">
+        <v>18.5800128376043</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.256328035817971</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.385046101585976</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.64137413740395</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.038043478260869</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.038043478260869</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.366666666666667</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19.36666666666667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9.001985709402822</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.001985709402822</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.256328035817971</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>8.385046101585976</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>14.64137413740395</v>
+        <v>20</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>7.038043478260869</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>7.038043478260869</v>
+        <v>20</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1547,6 +1547,114 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3.06567375922881</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.930927708001394</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.996601467230205</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.566123188405797</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.566123188405797</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16.83333333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.06567375922881</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>3.930927708001394</v>
+        <v>6.79530026757586</v>
       </c>
       <c r="E42" t="n">
-        <v>6.996601467230205</v>
+        <v>16.79530026757586</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.566123188405797</v>
+        <v>5.792572463768116</v>
       </c>
       <c r="E43" t="n">
-        <v>5.566123188405797</v>
+        <v>5.792572463768116</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1655,6 +1655,114 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2.039264615586693</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.039264615586693</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.039264615586693</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.039264615586693</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1763,6 +1763,222 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.000895434444553</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.000895434444553</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>8.660183271212095</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8.660183271212095</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -1673,10 +1673,10 @@
         <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>8.830971775389598</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>18.8309717753896</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>8.733333333333333</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>9.066666666666666</v>
       </c>
       <c r="E48" t="n">
-        <v>8.733333333333333</v>
+        <v>17.8</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1781,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1808,10 +1808,10 @@
         <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>19.16666666666666</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.000895434444553</v>
+        <v>7.516845486145408</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>9.272232314486191</v>
       </c>
       <c r="E54" t="n">
-        <v>2.000895434444553</v>
+        <v>16.7890778006316</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>7.382954864031399</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>7.382954864031399</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>8.660183271212095</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>9.123142250530783</v>
       </c>
       <c r="E57" t="n">
-        <v>8.660183271212095</v>
+        <v>17.78332552174288</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.516845486145408</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>9.272232314486191</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>16.7890778006316</v>
+        <v>20</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>7.382954864031399</v>
+        <v>8.346993388670978</v>
       </c>
       <c r="E55" t="n">
-        <v>7.382954864031399</v>
+        <v>18.34699338867098</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1979,6 +1979,114 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>9.689042272566601</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19.6890422725666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.036883424677823</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.036883424677823</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1994,13 +1994,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9.689042272566601</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>19.6890422725666</v>
+        <v>20</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2087,6 +2087,114 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>8.95427964252446</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.38096122891881</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.33524087144327</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E64" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -2105,10 +2105,10 @@
         <v>8.95427964252446</v>
       </c>
       <c r="D62" t="n">
-        <v>3.38096122891881</v>
+        <v>3.902638708127189</v>
       </c>
       <c r="E62" t="n">
-        <v>12.33524087144327</v>
+        <v>12.85691835065165</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2102,13 +2102,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.95427964252446</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>3.902638708127189</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>12.85691835065165</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5.067340067340067</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>15.06734006734007</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2195,6 +2195,114 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>20</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9.283522994139478</v>
+      </c>
+      <c r="E67" t="n">
+        <v>19.28352299413948</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.399999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.63333333333333</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2240,10 +2240,10 @@
         <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>9.283522994139478</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>19.28352299413948</v>
+        <v>20</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2303,6 +2303,870 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>10</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>20</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9.15781432226451</v>
+      </c>
+      <c r="E71" t="n">
+        <v>19.15781432226451</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>18.26666666666667</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.234385029378366</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8.234385029378366</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>10</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.733333333333334</v>
+      </c>
+      <c r="E76" t="n">
+        <v>16.73333333333333</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8.074236234313711</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8.074236234313711</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9.76561085691541</v>
+      </c>
+      <c r="E78" t="n">
+        <v>19.76561085691541</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5.707070707070708</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.995625166015088</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12.7026958730858</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="E80" t="n">
+        <v>18</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7.19750160470054</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7.19750160470054</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>10</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>8.660183271212095</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8.481262035254035</v>
+      </c>
+      <c r="E85" t="n">
+        <v>17.14144530646613</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.888757221152424</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.888757221152424</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>10</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>10</v>
+      </c>
+      <c r="D91" t="n">
+        <v>9.981884057971016</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19.98188405797102</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.933333333333334</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.933333333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>20</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>10</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9.566666666666666</v>
+      </c>
+      <c r="E96" t="n">
+        <v>19.56666666666667</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>6.963235535568292</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.375902645760491</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13.33913818132878</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>10</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="E100" t="n">
+        <v>18.66666666666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>0</v>
       </c>
     </row>
